--- a/OU.xlsx
+++ b/OU.xlsx
@@ -12,8 +12,9 @@
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$196</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$265</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$E$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$196</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2318,12 +2319,12 @@
   <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -4584,7 +4585,7 @@
         <v>392</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>393</v>
@@ -6838,7 +6839,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E196"/>
+  <autoFilter ref="A1:E265"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6861,9 +6862,9 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.29"/>

--- a/OU.xlsx
+++ b/OU.xlsx
@@ -9,12 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$265</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$E$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$196</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$202</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="683">
   <si>
     <t xml:space="preserve">orgUnit_dhis2</t>
   </si>
@@ -883,562 +882,814 @@
     <t xml:space="preserve">Mbofu Centre de Santé</t>
   </si>
   <si>
+    <t xml:space="preserve">NW89nJqL3Mh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cJnZ5pr0YSs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radem 1 Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiNetQDSWsX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciUoKLSpUdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapolowe Hôpital Général de Référence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IxIkK00iS0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPds6OvZz6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre d'Excellence Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YsxVplcB2pU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KbFju6VQ8Yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENDWE Hôpital Provincial de Référence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cJa2BH2uCNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Luc Polyclinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JGu8wI8ye5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZdpkFTbSkE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mont Carmel Centre de Santé de Référence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pto1AKvTUFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS2meb10vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Theresa Spineli Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tHGW1mIZgsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItLFN5k82Cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlt6O8PU4QD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0CYKb13qOd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmP3X1TSwew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JlGVapzhvz3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xews9ik5GAp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wQSxY8l7WnI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faraja Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u2Ae01PZ6Ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K55EG8H1vHb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mama wa Mapendo Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n0DodPRZoLH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zzPY4m6LqAa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisem Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j6SYVXfBQ8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K5N3wrcWjbE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katanga Centre de Santé de Référence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3KWXScEDly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b9qiT4tfTDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitumaini Polyclinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NU6ndzq7TBX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vb8lDLXkHjJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwisha Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fXcpWuGWRZu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w9o81z9U82n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eben Ezer 2 Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ot1gXRKpxiX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evpNqLFIEy3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventiste Centre Hôspitalier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPhfGO9NMhS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w9vmbayWMuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokambo Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YjGXLTWRr7w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dQwNpqrkjwx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yffIzPBAtN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oki05s09eax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ujana Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRJDxnK5a0Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDOrBbK80li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisha Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RvIxlEIr1NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8zBsDPkwKn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibangu Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ynjGTaiHZNy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GcZUvUEmYP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neema Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBrSXjNu7RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNoLYjdsI37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munganga Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xbFs0WOXUmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisha2 Sat Munganga Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6wCCgTH3vF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IrACyqYKCXS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGAPAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hT3J5eeq6xh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arche de Noe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s02HDAPqgso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povEh1qlbHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xTczbQ8znNk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UABS9fNb5T9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Baraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuJcagkcG7J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS des urgences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nd5k1XkZoZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDkziNEghuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Hebron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xGI9hplawTf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sKYvSeJj26u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Jenovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUtvRUvPSdP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3KVAg5oetj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gl8vzRTTY1i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AjwJH8kKlfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Mzee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kGRRMHMIz5w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7mlEw5ge8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Rapha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FpbNjIitlN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unP76K2OqnS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQh5GK2Xjy1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMCWi1jV65s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ygvuDr97QrD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mHoHbckyHcK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Gloire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PvIrfEX0hRe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiI5Ld1TL1w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Racine 3 Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iCu2eF2umvj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHvB3m5JFf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Jourdain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gW1i1cp1r7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vad1RNXvo7j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csy0GgKCUnf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S8DnB1y2NHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metanoa Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX3CKEze4fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UkWluFaMnRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propice Centre de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHgM10UjNul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mffgqT62Oeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvia Centre Médical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rA4YtxcySYi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ouLNkg0eTIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3MrvCfBB40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNYd8w5dLSv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Mamba 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZftIaSHdD1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ybtn65JEscf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5ref2PjPtc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unilu etoile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPHgE4qIVh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YuSrbH8GiJC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jehova Rapha-Kenya Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wl0NkGHvecD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sCW9Khr0QzY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOGQRrZJ6hw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2IRbeXW4zk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMmNq6qWiqU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErzN7wMB6lf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polykat 1 Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qSVOydPlcBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE2qnAfHH62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyclinique SMILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O8vFQdvC42K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IxFPIzfYNgF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chem Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cemM5RMqJvO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle - Lubumbashi Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heRTCBGtxD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ool7JhRUKPp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ Roi Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PjBAEI63jnN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvvVbdDmDZi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Marie Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g1VOKq0lIRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etK5OV4lNQo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrisnos Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1UoKASSbsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDMg26voPvX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Père Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xHoOIRlYJT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5IBO8iOy9D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kipusha Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i92FaxDpOYV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisane Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wVIXIoaChJM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au8tCMANgBl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabunda Centre de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVciJFHKgoE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8L9fly6pUk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Mamba 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaJaJ5QNsnQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maison des jeunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H6JkhSBUClG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WlysYLSyg7K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaika</t>
+  </si>
+  <si>
     <t xml:space="preserve">VkPRfEcEOKp</t>
   </si>
   <si>
     <t xml:space="preserve">kloe3J4FH0k</t>
   </si>
   <si>
-    <t xml:space="preserve">NW89nJqL3Mh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cJnZ5pr0YSs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radem 1 Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiNetQDSWsX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ciUoKLSpUdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapolowe Hôpital Général de Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IxIkK00iS0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPds6OvZz6p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre d'Excellence Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YsxVplcB2pU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KbFju6VQ8Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENDWE Hôpital Provincial de Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cJa2BH2uCNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Luc Polyclinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JGu8wI8ye5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZdpkFTbSkE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mont Carmel Centre de Santé de Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pto1AKvTUFX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS2meb10vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Theresa Spineli Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tHGW1mIZgsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItLFN5k82Cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlt6O8PU4QD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X0CYKb13qOd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xmP3X1TSwew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JlGVapzhvz3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xews9ik5GAp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wQSxY8l7WnI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faraja Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u2Ae01PZ6Ir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K55EG8H1vHb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mama wa Mapendo Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n0DodPRZoLH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zzPY4m6LqAa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crisem Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j6SYVXfBQ8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K5N3wrcWjbE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katanga Centre de Santé de Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3KWXScEDly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9qiT4tfTDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitumaini Polyclinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NU6ndzq7TBX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vb8lDLXkHjJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwisha Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fXcpWuGWRZu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w9o81z9U82n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eben Ezer 2 Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ot1gXRKpxiX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evpNqLFIEy3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventiste Centre Hôspitalier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPhfGO9NMhS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w9vmbayWMuQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokambo Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YjGXLTWRr7w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dQwNpqrkjwx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yffIzPBAtN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oki05s09eax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ujana Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRJDxnK5a0Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDOrBbK80li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maisha Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RvIxlEIr1NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8zBsDPkwKn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibangu Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ynjGTaiHZNy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GcZUvUEmYP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neema Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBrSXjNu7RA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNoLYjdsI37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munganga Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K6wCCgTH3vF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IrACyqYKCXS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGAPAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hT3J5eeq6xh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arche de Noe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s02HDAPqgso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">povEh1qlbHr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xTczbQ8znNk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UABS9fNb5T9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Baraka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CuJcagkcG7J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS des urgences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nd5k1XkZoZK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDkziNEghuy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Hebron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xGI9hplawTf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sKYvSeJj26u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Jenovic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUtvRUvPSdP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r3KVAg5oetj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gl8vzRTTY1i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AjwJH8kKlfc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Mzee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kGRRMHMIz5w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7mlEw5ge8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Rapha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FpbNjIitlN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unP76K2OqnS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OQh5GK2Xjy1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMCWi1jV65s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ygvuDr97QrD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mHoHbckyHcK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Gloire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PvIrfEX0hRe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TiI5Ld1TL1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Racine 3 Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iCu2eF2umvj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OHvB3m5JFf5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Jourdain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gW1i1cp1r7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vad1RNXvo7j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csy0GgKCUnf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S8DnB1y2NHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metanoa Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX3CKEze4fm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UkWluFaMnRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propice Centre de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHgM10UjNul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mffgqT62Oeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvia Centre Médical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rA4YtxcySYi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ouLNkg0eTIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3MrvCfBB40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fNYd8w5dLSv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Mamba 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZftIaSHdD1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ybtn65JEscf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5ref2PjPtc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unilu etoile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPHgE4qIVh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YuSrbH8GiJC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jehova Rapha-Kenya Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wl0NkGHvecD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCW9Khr0QzY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOGQRrZJ6hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k2IRbeXW4zk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMmNq6qWiqU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErzN7wMB6lf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polykat 1 Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qSVOydPlcBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE2qnAfHH62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyclinique SMILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O8vFQdvC42K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IxFPIzfYNgF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chem Chem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cemM5RMqJvO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle - Lubumbashi Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heRTCBGtxD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ool7JhRUKPp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christ Roi Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PjBAEI63jnN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvvVbdDmDZi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Marie Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1VOKq0lIRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etK5OV4lNQo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrisnos Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1UoKASSbsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDMg26voPvX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Père Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xHoOIRlYJT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5IBO8iOy9D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kipusha Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i92FaxDpOYV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisane Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wVIXIoaChJM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au8tCMANgBl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabunda Centre de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVciJFHKgoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v8L9fly6pUk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Mamba 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaJaJ5QNsnQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maison des jeunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H6JkhSBUClG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WlysYLSyg7K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaika</t>
+    <t xml:space="preserve">zWdJdWtRIPZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Circulaire Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2gHD9GlxNu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Cité de Jeunes Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwMTCnwNiER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk ECASET Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4SgQIccpbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kabanga Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RfNkamW1GdH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kabwela Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE8iQyDU5yb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kakompe Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikLYfCEflrD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kamasaka Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xChCw3j823m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kilobelobe Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isMIQkUS94a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Mubindu Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4OYuDKad1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Référence Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jqaGwSpcgpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Sab Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBI9YY0orKq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Savio Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dM9w0FGlkgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk St Abraham Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zPkO15aVzsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Suzanella Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7UiqU0rSlA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Dilungu Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPwyaclx0bk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kakompe Aire de santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7rNcvv1TLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kalebuka Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HtOIjEMdkw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kasungani Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qOEHoAIJqc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kenya 2 Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XxWjOEbfU9X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Malaika Aire de Sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jPgvrxK3mgH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Moba Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1TKJOsusZV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Trois C Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p7l1ES3v5dQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk CRAA Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HcNAJk8lYys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kalubwe 1 Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x6jfdavaWN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kamatete Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET7TiHOj4PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kasapa 2 Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7M0Qc7WJsX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kimbeimbe Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBvz1LAJffY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kiswishi Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NgC1PeQZE6n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk St Esprit Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fnqS5S0kQzC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Tshamalale Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mNPrjWnx5dN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Bendera Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QqRZw6y5uKJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Congo 2 Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDCpXr0eTmO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk De la Mine Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oL5IqSSMaRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kalukuluku Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpgxuVwL5MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kawama Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KmjQDOrfBi6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk La Vallée Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oAAJhtuCCRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Luwowoshi Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yCGNzhNq02G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Masangoshi Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RbnHZBS2a5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Kasumba Lesa douane Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cIlRmZozbsq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Makutano Aire de Santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eSCw59wjccY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk Muhona Aire de Santé</t>
   </si>
   <si>
     <t xml:space="preserve">Q3WX98J23Vo</t>
@@ -1823,135 +2074,6 @@
   </si>
   <si>
     <t xml:space="preserve">PODI-Lubumbashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Circulaire Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Cité de Jeunes Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk ECASET Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kabanga Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kabwela Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kakompe Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kamasaka Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kilobelobe Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Mubindu Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Référence Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Sab Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Savio Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk St Abraham Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Suzanella Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Dilungu Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kakompe Aire de santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kalebuka Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kasungani Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kenya 2 Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Malaika Aire de Sante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Moba Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Trois C Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk CRAA Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kalubwe 1 Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kamatete Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kasapa 2 Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kimbeimbe Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kiswishi Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk St Esprit Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Tshamalale Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Bendera Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Congo 2 Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk De la Mine Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kalukuluku Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kawama Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk La Vallée Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Luwowoshi Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Masangoshi Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Kasumba Lesa douane Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Makutano Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk Muhona Aire de Santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prov</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2274,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2222,10 +2344,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2306,34 +2424,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
+      <selection pane="bottomLeft" activeCell="C202" activeCellId="0" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -2367,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -2384,7 +2498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
@@ -2418,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
@@ -2452,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
@@ -2469,7 +2583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>38</v>
       </c>
@@ -2520,7 +2634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>42</v>
       </c>
@@ -2537,7 +2651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>46</v>
       </c>
@@ -2554,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>49</v>
       </c>
@@ -2571,7 +2685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>52</v>
       </c>
@@ -2588,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>55</v>
       </c>
@@ -2605,7 +2719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>58</v>
       </c>
@@ -2622,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>61</v>
       </c>
@@ -2639,7 +2753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>67</v>
       </c>
@@ -2673,7 +2787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>70</v>
       </c>
@@ -2690,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>73</v>
       </c>
@@ -2707,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>76</v>
       </c>
@@ -2724,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>88</v>
       </c>
@@ -2792,7 +2906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>91</v>
       </c>
@@ -2809,7 +2923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>94</v>
       </c>
@@ -2826,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>97</v>
       </c>
@@ -2843,7 +2957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>100</v>
       </c>
@@ -2860,7 +2974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>104</v>
       </c>
@@ -2877,7 +2991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -2894,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +3025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>113</v>
       </c>
@@ -2928,7 +3042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>116</v>
       </c>
@@ -2945,7 +3059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>119</v>
       </c>
@@ -2962,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>122</v>
       </c>
@@ -2979,7 +3093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>125</v>
       </c>
@@ -2996,7 +3110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>128</v>
       </c>
@@ -3013,7 +3127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>131</v>
       </c>
@@ -3030,7 +3144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>134</v>
       </c>
@@ -3047,7 +3161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>137</v>
       </c>
@@ -3064,7 +3178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>140</v>
       </c>
@@ -3081,7 +3195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>143</v>
       </c>
@@ -3098,7 +3212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>146</v>
       </c>
@@ -3115,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>149</v>
       </c>
@@ -3132,7 +3246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>151</v>
       </c>
@@ -3149,7 +3263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>153</v>
       </c>
@@ -3166,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>156</v>
       </c>
@@ -3183,7 +3297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>159</v>
       </c>
@@ -3200,7 +3314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>162</v>
       </c>
@@ -3217,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>165</v>
       </c>
@@ -3234,7 +3348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>168</v>
       </c>
@@ -3251,7 +3365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>171</v>
       </c>
@@ -3268,7 +3382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>174</v>
       </c>
@@ -3285,7 +3399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>177</v>
       </c>
@@ -3302,7 +3416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>180</v>
       </c>
@@ -3319,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>183</v>
       </c>
@@ -3336,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>186</v>
       </c>
@@ -3353,7 +3467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>189</v>
       </c>
@@ -3370,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>192</v>
       </c>
@@ -3387,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>195</v>
       </c>
@@ -3404,7 +3518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>198</v>
       </c>
@@ -3421,7 +3535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>200</v>
       </c>
@@ -3438,7 +3552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>203</v>
       </c>
@@ -3455,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>206</v>
       </c>
@@ -3472,7 +3586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>209</v>
       </c>
@@ -3489,7 +3603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>212</v>
       </c>
@@ -3506,7 +3620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>214</v>
       </c>
@@ -3523,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>217</v>
       </c>
@@ -3540,7 +3654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>220</v>
       </c>
@@ -3557,7 +3671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>223</v>
       </c>
@@ -3574,7 +3688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>225</v>
       </c>
@@ -3591,7 +3705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>228</v>
       </c>
@@ -3608,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>230</v>
       </c>
@@ -3625,7 +3739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>233</v>
       </c>
@@ -3642,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>236</v>
       </c>
@@ -3659,7 +3773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>238</v>
       </c>
@@ -3676,7 +3790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>241</v>
       </c>
@@ -3693,7 +3807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>243</v>
       </c>
@@ -3710,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>246</v>
       </c>
@@ -3727,7 +3841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>249</v>
       </c>
@@ -3744,7 +3858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>252</v>
       </c>
@@ -3761,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>255</v>
       </c>
@@ -3778,7 +3892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>258</v>
       </c>
@@ -3795,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>261</v>
       </c>
@@ -3812,7 +3926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>264</v>
       </c>
@@ -3829,7 +3943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>267</v>
       </c>
@@ -3846,7 +3960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>270</v>
       </c>
@@ -3863,7 +3977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>273</v>
       </c>
@@ -3880,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>276</v>
       </c>
@@ -3897,7 +4011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>279</v>
       </c>
@@ -3914,7 +4028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>282</v>
       </c>
@@ -3931,7 +4045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>285</v>
       </c>
@@ -3939,135 +4053,135 @@
         <v>286</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C96" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D97" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>299</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D101" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>304</v>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="0" t="s">
         <v>306</v>
       </c>
+      <c r="C102" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="E102" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>307</v>
       </c>
@@ -4075,16 +4189,16 @@
         <v>308</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
         <v>309</v>
       </c>
@@ -4092,276 +4206,276 @@
         <v>310</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11" t="s">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C107" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C109" s="12" t="s">
+      <c r="D114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C114" s="12" t="s">
+      <c r="D117" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C115" s="6" t="s">
+      <c r="D118" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="D119" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>7</v>
@@ -4373,7 +4487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>357</v>
       </c>
@@ -4390,7 +4504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>360</v>
       </c>
@@ -4441,7 +4555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>368</v>
       </c>
@@ -4458,7 +4572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>370</v>
       </c>
@@ -4475,7 +4589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>373</v>
       </c>
@@ -4509,7 +4623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>379</v>
       </c>
@@ -4526,7 +4640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>382</v>
       </c>
@@ -4560,7 +4674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>388</v>
       </c>
@@ -4577,7 +4691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>391</v>
       </c>
@@ -4679,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>409</v>
       </c>
@@ -4730,7 +4844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>418</v>
       </c>
@@ -4747,7 +4861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>421</v>
       </c>
@@ -4764,7 +4878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>423</v>
       </c>
@@ -4781,7 +4895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>426</v>
       </c>
@@ -4815,7 +4929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>432</v>
       </c>
@@ -4849,7 +4963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>438</v>
       </c>
@@ -4866,7 +4980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>441</v>
       </c>
@@ -4883,7 +4997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>443</v>
       </c>
@@ -4900,7 +5014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>446</v>
       </c>
@@ -4917,7 +5031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>449</v>
       </c>
@@ -4934,7 +5048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>452</v>
       </c>
@@ -4968,7 +5082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>458</v>
       </c>
@@ -5002,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>463</v>
       </c>
@@ -5019,7 +5133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>466</v>
       </c>
@@ -5036,7 +5150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>468</v>
       </c>
@@ -5053,729 +5167,729 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C184" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D184" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C173" s="17" t="s">
+      <c r="C200" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C176" s="17" t="s">
+      <c r="D200" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D176" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="B177" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C180" s="17" t="s">
+      <c r="D201" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D180" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="B182" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="B183" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="B184" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="B190" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="B191" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="B193" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="B195" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="B199" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="B200" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B201" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" s="17" t="s">
+      <c r="D202" s="11" t="s">
         <v>554</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
         <v>555</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>556</v>
@@ -5784,15 +5898,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
         <v>557</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D204" s="17" t="s">
         <v>558</v>
@@ -5801,15 +5915,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
         <v>559</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
         <v>560</v>
@@ -5818,15 +5932,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
         <v>561</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D206" s="17" t="s">
         <v>562</v>
@@ -5835,7 +5949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
         <v>563</v>
       </c>
@@ -5852,32 +5966,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9" t="s">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" s="9" t="s">
+      <c r="B208" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="17" t="s">
         <v>566</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
         <v>567</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D209" s="17" t="s">
         <v>568</v>
@@ -5886,7 +6000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
         <v>569</v>
       </c>
@@ -5903,7 +6017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
         <v>571</v>
       </c>
@@ -5920,7 +6034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
         <v>573</v>
       </c>
@@ -5937,15 +6051,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
         <v>575</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D213" s="17" t="s">
         <v>576</v>
@@ -5954,15 +6068,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="s">
         <v>577</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D214" s="17" t="s">
         <v>578</v>
@@ -5971,15 +6085,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
         <v>579</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>237</v>
+        <v>472</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
         <v>580</v>
@@ -5988,15 +6102,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="s">
         <v>581</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D216" s="17" t="s">
         <v>582</v>
@@ -6005,15 +6119,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
         <v>583</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D217" s="17" t="s">
         <v>584</v>
@@ -6022,15 +6136,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
         <v>585</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D218" s="17" t="s">
         <v>586</v>
@@ -6039,15 +6153,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
         <v>587</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>588</v>
@@ -6056,15 +6170,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="17" t="s">
         <v>589</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
         <v>590</v>
@@ -6073,15 +6187,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
         <v>591</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D221" s="17" t="s">
         <v>592</v>
@@ -6090,12 +6204,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
         <v>593</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>286</v>
+        <v>472</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>16</v>
@@ -6107,15 +6221,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
         <v>595</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D223" s="17" t="s">
         <v>596</v>
@@ -6124,15 +6238,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
         <v>597</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>598</v>
@@ -6141,705 +6255,722 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B225" s="0" t="s">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C230" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B226" s="0" t="s">
+      <c r="D230" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C240" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B227" s="0" t="s">
+      <c r="D240" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B248" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="B249" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B250" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C250" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B239" s="0" t="s">
+      <c r="D250" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="B259" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="B261" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B263" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B265" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C265" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D239" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B247" s="0" t="s">
+      <c r="D265" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B266" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C266" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D247" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D249" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D250" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D253" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D254" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D263" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="E265" s="0" t="s">
+      <c r="D266" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E266" s="0" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E265"/>
+  <autoFilter ref="A1:E160"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6856,614 +6987,1131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="18" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E44" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B45" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D49" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D64" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D65" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:E42"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OU.xlsx
+++ b/OU.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$160</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$202</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$202</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="685">
   <si>
     <t xml:space="preserve">orgUnit_dhis2</t>
   </si>
@@ -1134,6 +1134,9 @@
     <t xml:space="preserve">CuJcagkcG7J</t>
   </si>
   <si>
+    <t xml:space="preserve">dX4SKUXOK4B</t>
+  </si>
+  <si>
     <t xml:space="preserve">CS des urgences</t>
   </si>
   <si>
@@ -1402,6 +1405,9 @@
   </si>
   <si>
     <t xml:space="preserve">i92FaxDpOYV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceFpYvllhOV</t>
   </si>
   <si>
     <t xml:space="preserve">Louisane Centre de Sante</t>
@@ -2433,12 +2439,12 @@
   <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C202" activeCellId="0" sqref="C202"/>
+      <selection pane="bottomLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -4560,13 +4566,13 @@
         <v>368</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>98</v>
+        <v>369</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>9</v>
@@ -4574,16 +4580,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>9</v>
@@ -4591,16 +4597,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>9</v>
@@ -4608,16 +4614,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>9</v>
@@ -4625,16 +4631,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>9</v>
@@ -4642,16 +4648,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>9</v>
@@ -4659,16 +4665,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>9</v>
@@ -4676,16 +4682,16 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>9</v>
@@ -4693,16 +4699,16 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>9</v>
@@ -4710,16 +4716,16 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>9</v>
@@ -4727,16 +4733,16 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>9</v>
@@ -4744,16 +4750,16 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>9</v>
@@ -4761,16 +4767,16 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>9</v>
@@ -4778,16 +4784,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>9</v>
@@ -4795,16 +4801,16 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>9</v>
@@ -4812,16 +4818,16 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>9</v>
@@ -4829,16 +4835,16 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>9</v>
@@ -4846,16 +4852,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>9</v>
@@ -4863,7 +4869,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>22</v>
@@ -4872,7 +4878,7 @@
         <v>24</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>9</v>
@@ -4880,16 +4886,16 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>9</v>
@@ -4897,16 +4903,16 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>9</v>
@@ -4914,16 +4920,16 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>9</v>
@@ -4931,16 +4937,16 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>9</v>
@@ -4948,16 +4954,16 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>9</v>
@@ -4965,16 +4971,16 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>9</v>
@@ -4982,7 +4988,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>22</v>
@@ -4991,7 +4997,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>9</v>
@@ -4999,16 +5005,16 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>9</v>
@@ -5016,16 +5022,16 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>9</v>
@@ -5033,16 +5039,16 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>9</v>
@@ -5050,16 +5056,16 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>9</v>
@@ -5067,16 +5073,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>9</v>
@@ -5084,16 +5090,16 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>9</v>
@@ -5101,16 +5107,16 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>9</v>
@@ -5118,16 +5124,16 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>9</v>
@@ -5135,7 +5141,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>166</v>
@@ -5144,7 +5150,7 @@
         <v>167</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>9</v>
@@ -5152,16 +5158,16 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>9</v>
@@ -5169,10 +5175,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>16</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>242</v>
@@ -5195,7 +5201,7 @@
         <v>7</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>9</v>
@@ -5203,7 +5209,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>242</v>
@@ -5212,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>9</v>
@@ -5220,7 +5226,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>242</v>
@@ -5229,7 +5235,7 @@
         <v>7</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>9</v>
@@ -5237,7 +5243,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>242</v>
@@ -5246,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>9</v>
@@ -5254,7 +5260,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>242</v>
@@ -5263,7 +5269,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>9</v>
@@ -5271,7 +5277,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>242</v>
@@ -5280,7 +5286,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>9</v>
@@ -5288,7 +5294,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>242</v>
@@ -5297,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>9</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>242</v>
@@ -5314,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>9</v>
@@ -5322,7 +5328,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>242</v>
@@ -5331,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>9</v>
@@ -5339,7 +5345,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>242</v>
@@ -5348,7 +5354,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>9</v>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>242</v>
@@ -5365,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>9</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>242</v>
@@ -5382,7 +5388,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>9</v>
@@ -5390,7 +5396,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>242</v>
@@ -5399,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>9</v>
@@ -5407,7 +5413,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>242</v>
@@ -5416,7 +5422,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>9</v>
@@ -5424,7 +5430,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>213</v>
@@ -5433,7 +5439,7 @@
         <v>40</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>9</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>213</v>
@@ -5450,7 +5456,7 @@
         <v>40</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>9</v>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>213</v>
@@ -5467,7 +5473,7 @@
         <v>40</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>9</v>
@@ -5475,7 +5481,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>213</v>
@@ -5484,7 +5490,7 @@
         <v>40</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>9</v>
@@ -5492,7 +5498,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>213</v>
@@ -5501,7 +5507,7 @@
         <v>40</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>9</v>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>213</v>
@@ -5518,7 +5524,7 @@
         <v>40</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>9</v>
@@ -5526,7 +5532,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>213</v>
@@ -5535,7 +5541,7 @@
         <v>40</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>9</v>
@@ -5543,7 +5549,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>213</v>
@@ -5552,7 +5558,7 @@
         <v>40</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E183" s="0" t="s">
         <v>9</v>
@@ -5560,7 +5566,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>237</v>
@@ -5569,7 +5575,7 @@
         <v>23</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>9</v>
@@ -5577,7 +5583,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>237</v>
@@ -5586,7 +5592,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>9</v>
@@ -5594,7 +5600,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>237</v>
@@ -5603,7 +5609,7 @@
         <v>23</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>9</v>
@@ -5611,7 +5617,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>237</v>
@@ -5620,7 +5626,7 @@
         <v>23</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>9</v>
@@ -5628,7 +5634,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>237</v>
@@ -5637,7 +5643,7 @@
         <v>23</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>9</v>
@@ -5645,7 +5651,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>237</v>
@@ -5654,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>9</v>
@@ -5662,7 +5668,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>237</v>
@@ -5671,7 +5677,7 @@
         <v>23</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>9</v>
@@ -5679,7 +5685,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>237</v>
@@ -5688,7 +5694,7 @@
         <v>23</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>9</v>
@@ -5696,7 +5702,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>310</v>
@@ -5705,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E192" s="0" t="s">
         <v>9</v>
@@ -5713,7 +5719,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>310</v>
@@ -5722,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>9</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>310</v>
@@ -5739,7 +5745,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>9</v>
@@ -5747,7 +5753,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>310</v>
@@ -5756,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>9</v>
@@ -5764,7 +5770,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>310</v>
@@ -5773,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>9</v>
@@ -5781,7 +5787,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>310</v>
@@ -5790,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>9</v>
@@ -5798,7 +5804,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>310</v>
@@ -5807,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>9</v>
@@ -5815,7 +5821,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>310</v>
@@ -5824,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>9</v>
@@ -5832,16 +5838,16 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>9</v>
@@ -5849,16 +5855,16 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>9</v>
@@ -5866,16 +5872,16 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>9</v>
@@ -5883,7 +5889,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B203" s="17" t="s">
         <v>237</v>
@@ -5892,7 +5898,7 @@
         <v>23</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E203" s="0" t="s">
         <v>9</v>
@@ -5900,7 +5906,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>152</v>
@@ -5909,7 +5915,7 @@
         <v>36</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>9</v>
@@ -5917,7 +5923,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>310</v>
@@ -5926,7 +5932,7 @@
         <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>9</v>
@@ -5934,7 +5940,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B206" s="17" t="s">
         <v>237</v>
@@ -5943,7 +5949,7 @@
         <v>23</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>9</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B207" s="17" t="s">
         <v>237</v>
@@ -5960,7 +5966,7 @@
         <v>23</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>9</v>
@@ -5968,7 +5974,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>213</v>
@@ -5977,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>9</v>
@@ -5985,7 +5991,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B209" s="17" t="s">
         <v>213</v>
@@ -5994,7 +6000,7 @@
         <v>40</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>9</v>
@@ -6002,7 +6008,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B210" s="17" t="s">
         <v>237</v>
@@ -6011,7 +6017,7 @@
         <v>23</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>9</v>
@@ -6019,7 +6025,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B211" s="17" t="s">
         <v>237</v>
@@ -6028,7 +6034,7 @@
         <v>23</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>9</v>
@@ -6036,7 +6042,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B212" s="17" t="s">
         <v>237</v>
@@ -6045,7 +6051,7 @@
         <v>23</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>9</v>
@@ -6053,7 +6059,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B213" s="17" t="s">
         <v>237</v>
@@ -6062,7 +6068,7 @@
         <v>23</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>9</v>
@@ -6070,7 +6076,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>213</v>
@@ -6079,7 +6085,7 @@
         <v>40</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>9</v>
@@ -6087,16 +6093,16 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>9</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>213</v>
@@ -6113,7 +6119,7 @@
         <v>40</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>9</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>213</v>
@@ -6130,7 +6136,7 @@
         <v>40</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>9</v>
@@ -6138,16 +6144,16 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>9</v>
@@ -6155,7 +6161,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B219" s="17" t="s">
         <v>213</v>
@@ -6164,7 +6170,7 @@
         <v>40</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>9</v>
@@ -6172,7 +6178,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="17" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B220" s="17" t="s">
         <v>310</v>
@@ -6181,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>9</v>
@@ -6189,7 +6195,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>213</v>
@@ -6198,7 +6204,7 @@
         <v>40</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>9</v>
@@ -6206,16 +6212,16 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>9</v>
@@ -6223,7 +6229,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B223" s="17" t="s">
         <v>306</v>
@@ -6232,7 +6238,7 @@
         <v>44</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>9</v>
@@ -6240,7 +6246,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B224" s="17" t="s">
         <v>310</v>
@@ -6249,7 +6255,7 @@
         <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>9</v>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="17" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B225" s="17" t="s">
         <v>310</v>
@@ -6266,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>9</v>
@@ -6274,7 +6280,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>237</v>
@@ -6283,7 +6289,7 @@
         <v>23</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>9</v>
@@ -6291,7 +6297,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="17" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>237</v>
@@ -6300,7 +6306,7 @@
         <v>23</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>9</v>
@@ -6308,7 +6314,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B228" s="17" t="s">
         <v>308</v>
@@ -6317,7 +6323,7 @@
         <v>102</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>9</v>
@@ -6325,7 +6331,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B229" s="17" t="s">
         <v>310</v>
@@ -6334,7 +6340,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>9</v>
@@ -6342,7 +6348,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>242</v>
@@ -6351,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>9</v>
@@ -6359,7 +6365,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>306</v>
@@ -6368,7 +6374,7 @@
         <v>44</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>9</v>
@@ -6376,7 +6382,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B232" s="17" t="s">
         <v>306</v>
@@ -6385,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E232" s="0" t="s">
         <v>9</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B233" s="17" t="s">
         <v>213</v>
@@ -6402,7 +6408,7 @@
         <v>40</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E233" s="0" t="s">
         <v>9</v>
@@ -6410,7 +6416,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B234" s="17" t="s">
         <v>213</v>
@@ -6419,7 +6425,7 @@
         <v>40</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>9</v>
@@ -6427,7 +6433,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B235" s="17" t="s">
         <v>306</v>
@@ -6436,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>9</v>
@@ -6444,7 +6450,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B236" s="17" t="s">
         <v>213</v>
@@ -6453,7 +6459,7 @@
         <v>40</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>9</v>
@@ -6461,7 +6467,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B237" s="17" t="s">
         <v>213</v>
@@ -6470,7 +6476,7 @@
         <v>40</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>9</v>
@@ -6478,7 +6484,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B238" s="17" t="s">
         <v>237</v>
@@ -6487,7 +6493,7 @@
         <v>23</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>9</v>
@@ -6495,16 +6501,16 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>9</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>242</v>
@@ -6521,7 +6527,7 @@
         <v>7</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E240" s="0" t="s">
         <v>9</v>
@@ -6529,7 +6535,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="17" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>213</v>
@@ -6538,7 +6544,7 @@
         <v>40</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>9</v>
@@ -6546,16 +6552,16 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>9</v>
@@ -6563,7 +6569,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B243" s="17" t="s">
         <v>310</v>
@@ -6572,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>9</v>
@@ -6580,16 +6586,16 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="17" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>9</v>
@@ -6597,7 +6603,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="17" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B245" s="17" t="s">
         <v>306</v>
@@ -6606,7 +6612,7 @@
         <v>44</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E245" s="0" t="s">
         <v>9</v>
@@ -6614,16 +6620,16 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="17" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>9</v>
@@ -6631,16 +6637,16 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="17" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E247" s="0" t="s">
         <v>9</v>
@@ -6648,7 +6654,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="17" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B248" s="17" t="s">
         <v>306</v>
@@ -6657,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E248" s="0" t="s">
         <v>9</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="17" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B249" s="17" t="s">
         <v>237</v>
@@ -6674,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>9</v>
@@ -6682,7 +6688,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>242</v>
@@ -6691,7 +6697,7 @@
         <v>7</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>9</v>
@@ -6699,16 +6705,16 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="17" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E251" s="0" t="s">
         <v>9</v>
@@ -6716,7 +6722,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B252" s="17" t="s">
         <v>237</v>
@@ -6725,7 +6731,7 @@
         <v>23</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E252" s="0" t="s">
         <v>9</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="17" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B253" s="17" t="s">
         <v>237</v>
@@ -6742,7 +6748,7 @@
         <v>23</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E253" s="0" t="s">
         <v>9</v>
@@ -6750,7 +6756,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B254" s="17" t="s">
         <v>237</v>
@@ -6759,7 +6765,7 @@
         <v>23</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E254" s="0" t="s">
         <v>9</v>
@@ -6767,16 +6773,16 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E255" s="0" t="s">
         <v>9</v>
@@ -6784,7 +6790,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B256" s="17" t="s">
         <v>308</v>
@@ -6793,7 +6799,7 @@
         <v>102</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E256" s="0" t="s">
         <v>9</v>
@@ -6801,7 +6807,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B257" s="17" t="s">
         <v>237</v>
@@ -6810,7 +6816,7 @@
         <v>23</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E257" s="0" t="s">
         <v>9</v>
@@ -6818,16 +6824,16 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C258" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E258" s="0" t="s">
         <v>9</v>
@@ -6835,16 +6841,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C259" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E259" s="0" t="s">
         <v>9</v>
@@ -6852,7 +6858,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B260" s="17" t="s">
         <v>308</v>
@@ -6861,7 +6867,7 @@
         <v>102</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E260" s="0" t="s">
         <v>9</v>
@@ -6869,7 +6875,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B261" s="17" t="s">
         <v>237</v>
@@ -6878,7 +6884,7 @@
         <v>23</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E261" s="0" t="s">
         <v>9</v>
@@ -6886,7 +6892,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B262" s="17" t="s">
         <v>237</v>
@@ -6895,7 +6901,7 @@
         <v>23</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>9</v>
@@ -6903,16 +6909,16 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C263" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E263" s="0" t="s">
         <v>9</v>
@@ -6920,16 +6926,16 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C264" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E264" s="0" t="s">
         <v>9</v>
@@ -6937,7 +6943,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B265" s="17" t="s">
         <v>213</v>
@@ -6946,7 +6952,7 @@
         <v>40</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>9</v>
@@ -6954,7 +6960,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B266" s="17" t="s">
         <v>237</v>
@@ -6963,14 +6969,14 @@
         <v>23</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E266" s="0" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E160"/>
+  <autoFilter ref="A1:E202"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6993,10 +6999,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.56"/>
   </cols>
   <sheetData>
@@ -7019,7 +7025,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>237</v>
@@ -7028,7 +7034,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
@@ -7036,7 +7042,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>152</v>
@@ -7045,7 +7051,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
@@ -7053,7 +7059,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>310</v>
@@ -7062,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -7070,7 +7076,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>237</v>
@@ -7079,7 +7085,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -7087,7 +7093,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>237</v>
@@ -7096,7 +7102,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
@@ -7104,7 +7110,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>213</v>
@@ -7113,7 +7119,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -7121,7 +7127,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>213</v>
@@ -7130,7 +7136,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
@@ -7138,7 +7144,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>237</v>
@@ -7147,7 +7153,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>9</v>
@@ -7155,7 +7161,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>237</v>
@@ -7164,7 +7170,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>9</v>
@@ -7172,7 +7178,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>237</v>
@@ -7181,7 +7187,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
@@ -7189,7 +7195,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>237</v>
@@ -7198,7 +7204,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -7206,7 +7212,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>213</v>
@@ -7215,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>9</v>
@@ -7223,16 +7229,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>9</v>
@@ -7240,7 +7246,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>213</v>
@@ -7249,7 +7255,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -7257,7 +7263,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>213</v>
@@ -7266,7 +7272,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -7274,16 +7280,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
@@ -7291,7 +7297,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>213</v>
@@ -7300,7 +7306,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
@@ -7308,7 +7314,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>310</v>
@@ -7317,7 +7323,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
@@ -7325,7 +7331,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>213</v>
@@ -7334,7 +7340,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -7342,16 +7348,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>9</v>
@@ -7359,7 +7365,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>306</v>
@@ -7368,7 +7374,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>9</v>
@@ -7376,7 +7382,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>310</v>
@@ -7385,7 +7391,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
@@ -7393,7 +7399,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>310</v>
@@ -7402,7 +7408,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
@@ -7410,7 +7416,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>237</v>
@@ -7419,7 +7425,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
@@ -7427,7 +7433,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>237</v>
@@ -7436,7 +7442,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
@@ -7444,7 +7450,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>308</v>
@@ -7453,7 +7459,7 @@
         <v>102</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -7461,7 +7467,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>310</v>
@@ -7470,7 +7476,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -7478,7 +7484,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>242</v>
@@ -7487,7 +7493,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>9</v>
@@ -7495,7 +7501,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>306</v>
@@ -7504,7 +7510,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -7512,7 +7518,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>306</v>
@@ -7521,7 +7527,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>9</v>
@@ -7529,7 +7535,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>213</v>
@@ -7538,7 +7544,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>9</v>
@@ -7546,7 +7552,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>213</v>
@@ -7555,7 +7561,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>9</v>
@@ -7563,7 +7569,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>306</v>
@@ -7572,7 +7578,7 @@
         <v>44</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>9</v>
@@ -7580,7 +7586,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>213</v>
@@ -7589,7 +7595,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>9</v>
@@ -7597,7 +7603,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>213</v>
@@ -7606,7 +7612,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>9</v>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>237</v>
@@ -7623,7 +7629,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>9</v>
@@ -7631,16 +7637,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>9</v>
@@ -7648,7 +7654,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>242</v>
@@ -7657,7 +7663,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>9</v>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>213</v>
@@ -7674,7 +7680,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -7682,16 +7688,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>9</v>
@@ -7699,7 +7705,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>310</v>
@@ -7708,7 +7714,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>9</v>
@@ -7716,16 +7722,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>9</v>
@@ -7733,7 +7739,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>306</v>
@@ -7742,7 +7748,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>9</v>
@@ -7750,16 +7756,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>9</v>
@@ -7767,16 +7773,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>9</v>
@@ -7784,7 +7790,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="17" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>306</v>
@@ -7793,7 +7799,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>9</v>
@@ -7801,7 +7807,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>237</v>
@@ -7810,7 +7816,7 @@
         <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>9</v>
@@ -7818,7 +7824,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>242</v>
@@ -7827,7 +7833,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>9</v>
@@ -7835,16 +7841,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>9</v>
@@ -7852,7 +7858,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>237</v>
@@ -7861,7 +7867,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>9</v>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>237</v>
@@ -7878,7 +7884,7 @@
         <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>9</v>
@@ -7886,7 +7892,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>237</v>
@@ -7895,7 +7901,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>9</v>
@@ -7903,16 +7909,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>9</v>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>308</v>
@@ -7929,7 +7935,7 @@
         <v>102</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>9</v>
@@ -7937,7 +7943,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>237</v>
@@ -7946,7 +7952,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>9</v>
@@ -7954,16 +7960,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>9</v>
@@ -7971,16 +7977,16 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>9</v>
@@ -7988,7 +7994,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="17" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>308</v>
@@ -7997,7 +8003,7 @@
         <v>102</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>9</v>
@@ -8005,7 +8011,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>237</v>
@@ -8014,7 +8020,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>9</v>
@@ -8022,7 +8028,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>237</v>
@@ -8031,7 +8037,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>9</v>
@@ -8039,16 +8045,16 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>9</v>
@@ -8056,16 +8062,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>9</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>213</v>
@@ -8082,7 +8088,7 @@
         <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>9</v>
@@ -8090,7 +8096,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="17" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>237</v>
@@ -8099,7 +8105,7 @@
         <v>23</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>9</v>

--- a/OU.xlsx
+++ b/OU.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$202</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$160</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$A$1:$E$202</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="684">
   <si>
     <t xml:space="preserve">orgUnit_dhis2</t>
   </si>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">HYHRTyk5KvC</t>
   </si>
   <si>
-    <t xml:space="preserve">Kampemba Hôpital Général de Référence</t>
+    <t xml:space="preserve">Muhona Centre de Santé</t>
   </si>
   <si>
     <t xml:space="preserve">CqY4SBPtQry</t>
@@ -706,9 +706,6 @@
   </si>
   <si>
     <t xml:space="preserve">gCEF5dwoaRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhona Centre de Santé</t>
   </si>
   <si>
     <t xml:space="preserve">iF8Vpus48Pk</t>
@@ -2439,12 +2436,12 @@
   <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="75:75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -3705,7 +3702,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>9</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>226</v>
@@ -3722,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>9</v>
@@ -3730,16 +3727,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>9</v>
@@ -3747,16 +3744,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>9</v>
@@ -3764,10 +3761,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>9</v>
@@ -3781,16 +3778,16 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>9</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>9</v>
@@ -3815,16 +3812,16 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>9</v>
@@ -3832,16 +3829,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>9</v>
@@ -3849,16 +3846,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>9</v>
@@ -3866,16 +3863,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>9</v>
@@ -3883,16 +3880,16 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>9</v>
@@ -3900,16 +3897,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>9</v>
@@ -3917,16 +3914,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>9</v>
@@ -3934,16 +3931,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>9</v>
@@ -3951,16 +3948,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>9</v>
@@ -3968,16 +3965,16 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>9</v>
@@ -3985,16 +3982,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>9</v>
@@ -4002,16 +3999,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>9</v>
@@ -4019,16 +4016,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>9</v>
@@ -4036,16 +4033,16 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>9</v>
@@ -4053,16 +4050,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>9</v>
@@ -4070,16 +4067,16 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>9</v>
@@ -4087,16 +4084,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>9</v>
@@ -4104,16 +4101,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>9</v>
@@ -4121,16 +4118,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>9</v>
@@ -4138,16 +4135,16 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>9</v>
@@ -4155,16 +4152,16 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>9</v>
@@ -4172,10 +4169,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>44</v>
@@ -4189,10 +4186,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>102</v>
@@ -4206,10 +4203,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>12</v>
@@ -4223,16 +4220,16 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>9</v>
@@ -4240,16 +4237,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>9</v>
@@ -4257,16 +4254,16 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>9</v>
@@ -4274,16 +4271,16 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>9</v>
@@ -4291,16 +4288,16 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>9</v>
@@ -4308,16 +4305,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>9</v>
@@ -4325,16 +4322,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>9</v>
@@ -4342,16 +4339,16 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>333</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>9</v>
@@ -4359,16 +4356,16 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>9</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>7</v>
@@ -4393,16 +4390,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>9</v>
@@ -4410,16 +4407,16 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="C116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>9</v>
@@ -4427,16 +4424,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>9</v>
@@ -4444,16 +4441,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>9</v>
@@ -4461,16 +4458,16 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>9</v>
@@ -4478,16 +4475,16 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>9</v>
@@ -4495,16 +4492,16 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>9</v>
@@ -4512,7 +4509,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>22</v>
@@ -4521,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>9</v>
@@ -4529,16 +4526,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>9</v>
@@ -4546,16 +4543,16 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>9</v>
@@ -4563,16 +4560,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>9</v>
@@ -4580,16 +4577,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>372</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>9</v>
@@ -4597,16 +4594,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>9</v>
@@ -4614,16 +4611,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>9</v>
@@ -4631,16 +4628,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>381</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>9</v>
@@ -4648,16 +4645,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>384</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>9</v>
@@ -4665,16 +4662,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>9</v>
@@ -4682,16 +4679,16 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>390</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>9</v>
@@ -4699,16 +4696,16 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>393</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>9</v>
@@ -4716,16 +4713,16 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>9</v>
@@ -4733,16 +4730,16 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>9</v>
@@ -4750,16 +4747,16 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>9</v>
@@ -4767,16 +4764,16 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>9</v>
@@ -4784,16 +4781,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>9</v>
@@ -4801,16 +4798,16 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>410</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>411</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>9</v>
@@ -4818,16 +4815,16 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>9</v>
@@ -4835,16 +4832,16 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>416</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>417</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>9</v>
@@ -4852,16 +4849,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>420</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>9</v>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>22</v>
@@ -4878,7 +4875,7 @@
         <v>24</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>9</v>
@@ -4886,16 +4883,16 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>424</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>425</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>9</v>
@@ -4903,16 +4900,16 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>428</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>9</v>
@@ -4920,16 +4917,16 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>9</v>
@@ -4937,16 +4934,16 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B147" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>9</v>
@@ -4954,16 +4951,16 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>9</v>
@@ -4971,16 +4968,16 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>9</v>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>22</v>
@@ -4997,7 +4994,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>9</v>
@@ -5005,16 +5002,16 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>444</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>445</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>9</v>
@@ -5022,16 +5019,16 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>448</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>9</v>
@@ -5039,16 +5036,16 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>450</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>451</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>9</v>
@@ -5056,16 +5053,16 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B154" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>454</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>9</v>
@@ -5073,16 +5070,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>9</v>
@@ -5090,16 +5087,16 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B156" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>460</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>9</v>
@@ -5107,16 +5104,16 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>9</v>
@@ -5124,16 +5121,16 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>466</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>9</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>166</v>
@@ -5150,7 +5147,7 @@
         <v>167</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>9</v>
@@ -5158,16 +5155,16 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B160" s="14" t="s">
         <v>470</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>471</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>9</v>
@@ -5175,10 +5172,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" s="14" t="s">
         <v>473</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>474</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>16</v>
@@ -5192,16 +5189,16 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>9</v>
@@ -5209,16 +5206,16 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>9</v>
@@ -5226,16 +5223,16 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>9</v>
@@ -5243,16 +5240,16 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>9</v>
@@ -5260,16 +5257,16 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>9</v>
@@ -5277,16 +5274,16 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>9</v>
@@ -5294,16 +5291,16 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>9</v>
@@ -5311,16 +5308,16 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>9</v>
@@ -5328,16 +5325,16 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>9</v>
@@ -5345,16 +5342,16 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>9</v>
@@ -5362,16 +5359,16 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>9</v>
@@ -5379,16 +5376,16 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>9</v>
@@ -5396,16 +5393,16 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>9</v>
@@ -5413,16 +5410,16 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>9</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>213</v>
@@ -5439,7 +5436,7 @@
         <v>40</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>9</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>213</v>
@@ -5456,7 +5453,7 @@
         <v>40</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>9</v>
@@ -5464,7 +5461,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>213</v>
@@ -5473,7 +5470,7 @@
         <v>40</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>9</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>213</v>
@@ -5490,7 +5487,7 @@
         <v>40</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>9</v>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>213</v>
@@ -5507,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>9</v>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>213</v>
@@ -5524,7 +5521,7 @@
         <v>40</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>9</v>
@@ -5532,7 +5529,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>213</v>
@@ -5541,7 +5538,7 @@
         <v>40</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>9</v>
@@ -5549,7 +5546,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>213</v>
@@ -5558,7 +5555,7 @@
         <v>40</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E183" s="0" t="s">
         <v>9</v>
@@ -5566,16 +5563,16 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>9</v>
@@ -5583,16 +5580,16 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>9</v>
@@ -5600,16 +5597,16 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>9</v>
@@ -5617,16 +5614,16 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>9</v>
@@ -5634,16 +5631,16 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>9</v>
@@ -5651,16 +5648,16 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>9</v>
@@ -5668,16 +5665,16 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>9</v>
@@ -5685,16 +5682,16 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>9</v>
@@ -5702,16 +5699,16 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E192" s="0" t="s">
         <v>9</v>
@@ -5719,16 +5716,16 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>9</v>
@@ -5736,16 +5733,16 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>9</v>
@@ -5753,16 +5750,16 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>9</v>
@@ -5770,16 +5767,16 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>9</v>
@@ -5787,16 +5784,16 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>9</v>
@@ -5804,16 +5801,16 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>9</v>
@@ -5821,16 +5818,16 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>9</v>
@@ -5838,16 +5835,16 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>9</v>
@@ -5855,16 +5852,16 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>9</v>
@@ -5872,16 +5869,16 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>9</v>
@@ -5889,16 +5886,16 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E203" s="0" t="s">
         <v>9</v>
@@ -5906,7 +5903,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>152</v>
@@ -5915,7 +5912,7 @@
         <v>36</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>9</v>
@@ -5923,16 +5920,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>9</v>
@@ -5940,16 +5937,16 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>9</v>
@@ -5957,16 +5954,16 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>9</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>213</v>
@@ -5983,7 +5980,7 @@
         <v>40</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>9</v>
@@ -5991,7 +5988,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B209" s="17" t="s">
         <v>213</v>
@@ -6000,7 +5997,7 @@
         <v>40</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>9</v>
@@ -6008,16 +6005,16 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>9</v>
@@ -6025,16 +6022,16 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>9</v>
@@ -6042,16 +6039,16 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>9</v>
@@ -6059,16 +6056,16 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>9</v>
@@ -6076,7 +6073,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>213</v>
@@ -6085,7 +6082,7 @@
         <v>40</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>9</v>
@@ -6093,16 +6090,16 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>9</v>
@@ -6110,7 +6107,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>213</v>
@@ -6119,7 +6116,7 @@
         <v>40</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>9</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>213</v>
@@ -6136,7 +6133,7 @@
         <v>40</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>9</v>
@@ -6144,16 +6141,16 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>9</v>
@@ -6161,7 +6158,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B219" s="17" t="s">
         <v>213</v>
@@ -6170,7 +6167,7 @@
         <v>40</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>9</v>
@@ -6178,16 +6175,16 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>9</v>
@@ -6195,7 +6192,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>213</v>
@@ -6204,7 +6201,7 @@
         <v>40</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>9</v>
@@ -6212,16 +6209,16 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>9</v>
@@ -6229,16 +6226,16 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>9</v>
@@ -6246,16 +6243,16 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>9</v>
@@ -6263,16 +6260,16 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>9</v>
@@ -6280,16 +6277,16 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>9</v>
@@ -6297,16 +6294,16 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>9</v>
@@ -6314,16 +6311,16 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>9</v>
@@ -6331,16 +6328,16 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>9</v>
@@ -6348,16 +6345,16 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>9</v>
@@ -6365,16 +6362,16 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>9</v>
@@ -6382,16 +6379,16 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E232" s="0" t="s">
         <v>9</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B233" s="17" t="s">
         <v>213</v>
@@ -6408,7 +6405,7 @@
         <v>40</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E233" s="0" t="s">
         <v>9</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B234" s="17" t="s">
         <v>213</v>
@@ -6425,7 +6422,7 @@
         <v>40</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>9</v>
@@ -6433,16 +6430,16 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>9</v>
@@ -6450,7 +6447,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B236" s="17" t="s">
         <v>213</v>
@@ -6459,7 +6456,7 @@
         <v>40</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>9</v>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B237" s="17" t="s">
         <v>213</v>
@@ -6476,7 +6473,7 @@
         <v>40</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>9</v>
@@ -6484,16 +6481,16 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>9</v>
@@ -6501,16 +6498,16 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C239" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>9</v>
@@ -6518,16 +6515,16 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E240" s="0" t="s">
         <v>9</v>
@@ -6535,7 +6532,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>213</v>
@@ -6544,7 +6541,7 @@
         <v>40</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>9</v>
@@ -6552,16 +6549,16 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C242" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>9</v>
@@ -6569,16 +6566,16 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>9</v>
@@ -6586,16 +6583,16 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>9</v>
@@ -6603,16 +6600,16 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C245" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E245" s="0" t="s">
         <v>9</v>
@@ -6620,16 +6617,16 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>9</v>
@@ -6637,16 +6634,16 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E247" s="0" t="s">
         <v>9</v>
@@ -6654,16 +6651,16 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E248" s="0" t="s">
         <v>9</v>
@@ -6671,16 +6668,16 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>9</v>
@@ -6688,16 +6685,16 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>9</v>
@@ -6705,16 +6702,16 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E251" s="0" t="s">
         <v>9</v>
@@ -6722,16 +6719,16 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E252" s="0" t="s">
         <v>9</v>
@@ -6739,16 +6736,16 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E253" s="0" t="s">
         <v>9</v>
@@ -6756,16 +6753,16 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E254" s="0" t="s">
         <v>9</v>
@@ -6773,16 +6770,16 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E255" s="0" t="s">
         <v>9</v>
@@ -6790,16 +6787,16 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E256" s="0" t="s">
         <v>9</v>
@@ -6807,16 +6804,16 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E257" s="0" t="s">
         <v>9</v>
@@ -6824,16 +6821,16 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C258" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E258" s="0" t="s">
         <v>9</v>
@@ -6841,16 +6838,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C259" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E259" s="0" t="s">
         <v>9</v>
@@ -6858,16 +6855,16 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C260" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E260" s="0" t="s">
         <v>9</v>
@@ -6875,16 +6872,16 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E261" s="0" t="s">
         <v>9</v>
@@ -6892,16 +6889,16 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C262" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>9</v>
@@ -6909,16 +6906,16 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C263" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E263" s="0" t="s">
         <v>9</v>
@@ -6926,16 +6923,16 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C264" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E264" s="0" t="s">
         <v>9</v>
@@ -6943,7 +6940,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B265" s="17" t="s">
         <v>213</v>
@@ -6952,7 +6949,7 @@
         <v>40</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>9</v>
@@ -6960,23 +6957,23 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C266" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E266" s="0" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E202"/>
+  <autoFilter ref="A1:E160"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6996,13 +6993,13 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="75:75 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.56"/>
   </cols>
   <sheetData>
@@ -7025,16 +7022,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
@@ -7042,7 +7039,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>152</v>
@@ -7051,7 +7048,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
@@ -7059,16 +7056,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -7076,16 +7073,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -7093,16 +7090,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
@@ -7110,7 +7107,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>213</v>
@@ -7119,7 +7116,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -7127,7 +7124,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>213</v>
@@ -7136,7 +7133,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
@@ -7144,16 +7141,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>9</v>
@@ -7161,16 +7158,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>9</v>
@@ -7178,16 +7175,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
@@ -7195,16 +7192,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -7212,7 +7209,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>213</v>
@@ -7221,7 +7218,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>9</v>
@@ -7229,16 +7226,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>9</v>
@@ -7246,7 +7243,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>213</v>
@@ -7255,7 +7252,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -7263,7 +7260,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>213</v>
@@ -7272,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -7280,16 +7277,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>213</v>
@@ -7306,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
@@ -7314,16 +7311,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>213</v>
@@ -7340,7 +7337,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -7348,16 +7345,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>9</v>
@@ -7365,16 +7362,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>9</v>
@@ -7382,16 +7379,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
@@ -7399,16 +7396,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
@@ -7416,16 +7413,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
@@ -7433,16 +7430,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
@@ -7450,16 +7447,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -7467,16 +7464,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -7484,16 +7481,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>9</v>
@@ -7501,16 +7498,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -7518,16 +7515,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>9</v>
@@ -7535,7 +7532,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>213</v>
@@ -7544,7 +7541,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>9</v>
@@ -7552,7 +7549,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>213</v>
@@ -7561,7 +7558,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>9</v>
@@ -7569,16 +7566,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>9</v>
@@ -7586,7 +7583,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>213</v>
@@ -7595,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>9</v>
@@ -7603,7 +7600,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>213</v>
@@ -7612,7 +7609,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>9</v>
@@ -7620,16 +7617,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>9</v>
@@ -7637,16 +7634,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>9</v>
@@ -7654,16 +7651,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>9</v>
@@ -7671,7 +7668,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>213</v>
@@ -7680,7 +7677,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -7688,16 +7685,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>9</v>
@@ -7705,16 +7702,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>9</v>
@@ -7722,16 +7719,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>9</v>
@@ -7739,16 +7736,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>9</v>
@@ -7756,16 +7753,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>9</v>
@@ -7773,16 +7770,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>9</v>
@@ -7790,16 +7787,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>9</v>
@@ -7807,16 +7804,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>9</v>
@@ -7824,16 +7821,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>9</v>
@@ -7841,16 +7838,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>9</v>
@@ -7858,16 +7855,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>9</v>
@@ -7875,16 +7872,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>9</v>
@@ -7892,16 +7889,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>9</v>
@@ -7909,16 +7906,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>9</v>
@@ -7926,16 +7923,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>9</v>
@@ -7943,16 +7940,16 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>9</v>
@@ -7960,16 +7957,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>9</v>
@@ -7977,16 +7974,16 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>9</v>
@@ -7994,16 +7991,16 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>9</v>
@@ -8011,16 +8008,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>9</v>
@@ -8028,16 +8025,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>9</v>
@@ -8045,16 +8042,16 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>9</v>
@@ -8062,16 +8059,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>9</v>
@@ -8079,7 +8076,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>213</v>
@@ -8088,7 +8085,7 @@
         <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>9</v>
@@ -8096,16 +8093,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>9</v>
